--- a/biology/Zoologie/Euophrys_rufibarbis/Euophrys_rufibarbis.xlsx
+++ b/biology/Zoologie/Euophrys_rufibarbis/Euophrys_rufibarbis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euophrys rufibarbis est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euophrys rufibarbis est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Europe du Sud, en Turquie, en Chine[1] et en Afrique du Nord[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Europe du Sud, en Turquie, en Chine et en Afrique du Nord.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce colonise des milieux secs. 
 </t>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 3,44 à 4,42 mm et les femelles de 3,7 à 4,88 mm[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 3,44 à 4,42 mm et les femelles de 3,7 à 4,88 mm.
 La femelle est quasiment uniformément brune parsemée de poils blancs, montrant simplement deux légères rangées de points blancs et noirs de chaque côté de l'axe de l'abdomen. Elle possède une moustache blanche bien coupée, parfois orangée, et des joues glabres.
 Le mâle est reconnaissable par la présence de poils rouges vif sur sa face.
 </t>
@@ -606,10 +624,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Attus rufibarbis par Simon en 1868. Elle est placée dans le genre Euophrys par Simon en 1876[3].
-Attus comptulus[4] a été placée en synonymie par Prószyński en 1987[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Attus rufibarbis par Simon en 1868. Elle est placée dans le genre Euophrys par Simon en 1876.
+Attus comptulus a été placée en synonymie par Prószyński en 1987.
 </t>
         </is>
       </c>
@@ -638,7 +658,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Simon, 1868 : « Monographie des espèces européennes de la famille des attides (Attidae Sundewall. - Saltigradae Latreille). » Annales de la Société Entomologique de France, sér. 4, vol. 8, p. 11-72 &amp; 529-726 (texte intégral).</t>
         </is>
